--- a/Test case/tase case.xlsx
+++ b/Test case/tase case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485"/>
+    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="website" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgVWdSJVHLtgzREFXm4AGM/3DyC5A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mgVWdSJVHLtgzREFXm4AGM/3DyC5A=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="147">
   <si>
     <t xml:space="preserve">User Story
 </t>
@@ -329,15 +329,293 @@
     <t>f</t>
   </si>
   <si>
-    <t xml:space="preserve">https://documenter.getpostman.com/view/5781191/2s7YYpekQS
-</t>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Test Step</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User view </t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Set URL
+2. Set Method
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200.OK and tampil body 
+</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User create new order
+</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>200. OK and tampil body</t>
+  </si>
+  <si>
+    <t>1.  Set URL
+2. Set Method
+3. Set bearer token
+4. set body</t>
+  </si>
+  <si>
+    <t>400. Anauthorized</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set Method
+3. Set bearer token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Create new order tanpa body
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User create new order tanpa bearer token
+</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set Method
+3. Set body</t>
+  </si>
+  <si>
+    <t>401. Anauthorized</t>
+  </si>
+  <si>
+    <t>User get  all order</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. set method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User get order  By id invalid
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User get order By id valid
+</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. set method
+3. Set id valid</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. set id invalid</t>
+  </si>
+  <si>
+    <t>404. Not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User get order by id invalid karakter
+</t>
+  </si>
+  <si>
+    <t>1.Set URL
+2. Set method</t>
+  </si>
+  <si>
+    <t>1.Set URL
+2. Set method
+3. Set id invalid karakter</t>
+  </si>
+  <si>
+    <t>400. Bad request</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>User login with email valid and password valid</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set email valid
+4. Set password valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User login with email invalid and password valid
+</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set email invalid
+4. Set password valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User login with email valid and password invalid
+</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set email valid
+4. Set password invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User login with password
+</t>
+  </si>
+  <si>
+    <t>1.Set URL
+2. Set method
+3. set password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User login with email
+</t>
+  </si>
+  <si>
+    <t>1.Set URL
+2. Set method
+3. set email</t>
+  </si>
+  <si>
+    <t>400. Bad request. password is required</t>
+  </si>
+  <si>
+    <t>400. Bad request. email is required</t>
+  </si>
+  <si>
+    <t>Get User information</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method</t>
+  </si>
+  <si>
+    <t>200. OK dan tampil body</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>User create a category</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3.Set name
+4. Set description</t>
+  </si>
+  <si>
+    <t>user get category by id invalid</t>
+  </si>
+  <si>
+    <t>user get category by id valid</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set Id valid</t>
+  </si>
+  <si>
+    <t>User get category by id karakter invalid</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set id karakter invalid</t>
+  </si>
+  <si>
+    <t>400. Bad Request</t>
+  </si>
+  <si>
+    <t>User get all category</t>
+  </si>
+  <si>
+    <t>User register</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set email
+4. Set password
+5. Set fullname</t>
+  </si>
+  <si>
+    <t>User register duplicate</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set email duplicate
+4. Set password duplicate
+5. Set fullname duplicate</t>
+  </si>
+  <si>
+    <t>400. Bad request. Duplicate key</t>
+  </si>
+  <si>
+    <t>User register with Password and fullname</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set password
+4. Set fullname</t>
+  </si>
+  <si>
+    <t>User register with email and fullname</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set email
+4. Set fullname</t>
+  </si>
+  <si>
+    <t>User register with email and password</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set email
+4. Set password</t>
+  </si>
+  <si>
+    <t>400. Bad request. fullname is required</t>
+  </si>
+  <si>
+    <t>https://alta-shop.herokuapp.com/api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,13 +640,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +676,32 @@
         <bgColor rgb="FF548DD4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -431,11 +750,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -454,12 +839,51 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -672,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2047,1031 +2471,501 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H1000"/>
+  <dimension ref="C2:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" style="9" customWidth="1"/>
+    <col min="10" max="26" width="8.7109375" style="9" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C8" s="20"/>
+      <c r="D8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="20"/>
+      <c r="D9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="20"/>
+      <c r="D11" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C16" s="20"/>
+      <c r="D16" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C17" s="20"/>
+      <c r="D17" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C19" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="20"/>
+      <c r="D21" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C22" s="20"/>
+      <c r="D22" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="20"/>
+      <c r="D23" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="C25" s="20"/>
+      <c r="D25" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C26" s="20"/>
+      <c r="D26" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C27" s="20"/>
+      <c r="D27" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" s="21"/>
+      <c r="D28" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3093,7 +2987,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">

--- a/Test case/tase case.xlsx
+++ b/Test case/tase case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="website" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="154">
   <si>
     <t xml:space="preserve">User Story
 </t>
@@ -609,6 +609,31 @@
   </si>
   <si>
     <t>https://alta-shop.herokuapp.com/api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transaction
+</t>
+  </si>
+  <si>
+    <t>User transaction view</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akses website https://alta-shop.vercel.app/transaction
+</t>
+  </si>
+  <si>
+    <t>Muncul  halaman transaksi page</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>1. login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website masih banyak bug 
+dev harus membuat sebuah id pada sebuah script 
+</t>
   </si>
 </sst>
 </file>
@@ -701,7 +726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -815,12 +840,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -828,10 +907,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -880,6 +955,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1096,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1107,10 +1203,12 @@
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="9" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:12" ht="105" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1149,9 +1247,12 @@
       <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="4:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="D5" s="4"/>
+      <c r="L4" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D5" s="20"/>
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1168,8 +1269,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="4:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="D6" s="4"/>
+    <row r="6" spans="4:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="D6" s="20"/>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1287,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="4:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="D7" s="4"/>
+    <row r="7" spans="4:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D7" s="20"/>
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1204,8 +1305,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="4:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="D8" s="4"/>
+    <row r="8" spans="4:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D8" s="20"/>
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1222,88 +1323,88 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
+    <row r="9" spans="4:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+    <row r="10" spans="4:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
+    <row r="11" spans="4:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
+    <row r="12" spans="4:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="D13" s="4"/>
+    <row r="13" spans="4:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D13" s="20"/>
       <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1316,12 +1417,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="s">
+    <row r="14" spans="4:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="D14" s="20"/>
+      <c r="E14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -1330,12 +1431,12 @@
       <c r="H14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="4:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
+    <row r="15" spans="4:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D15" s="20"/>
       <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
@@ -1352,9 +1453,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="4:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
+    <row r="16" spans="4:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="D16" s="20"/>
+      <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1371,7 +1472,7 @@
       </c>
     </row>
     <row r="17" spans="4:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1389,7 +1490,7 @@
       </c>
     </row>
     <row r="18" spans="4:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1409,7 +1510,7 @@
       </c>
     </row>
     <row r="19" spans="4:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="3" t="s">
         <v>62</v>
       </c>
@@ -1427,7 +1528,7 @@
       </c>
     </row>
     <row r="20" spans="4:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="3" t="s">
         <v>64</v>
       </c>
@@ -1445,7 +1546,7 @@
       </c>
     </row>
     <row r="21" spans="4:15" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="3" t="s">
         <v>66</v>
       </c>
@@ -1462,30 +1563,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="4:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="3" t="s">
+    <row r="22" spans="4:15" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="4:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="24" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2473,490 +2593,490 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15" style="9" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" style="9" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="9"/>
+    <col min="1" max="2" width="8.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" style="7" customWidth="1"/>
+    <col min="10" max="26" width="8.7109375" style="7" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="20"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C12" s="20"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="20"/>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="20"/>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C20" s="20"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C22" s="20"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="20"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="C25" s="20"/>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C26" s="20"/>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C27" s="20"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C28" s="21"/>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2987,7 +3107,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">

--- a/Test case/tase case.xlsx
+++ b/Test case/tase case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="161">
   <si>
     <t xml:space="preserve">User Story
 </t>
@@ -615,9 +615,6 @@
 </t>
   </si>
   <si>
-    <t>User transaction view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Akses website https://alta-shop.vercel.app/transaction
 </t>
   </si>
@@ -626,14 +623,42 @@
   </si>
   <si>
     <t>failed</t>
-  </si>
-  <si>
-    <t>1. login</t>
   </si>
   <si>
     <t xml:space="preserve">website masih banyak bug 
 dev harus membuat sebuah id pada sebuah script 
 </t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>User logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akses website https://alta-shop.vercel.app/auth/login  dan klik logout
+</t>
+  </si>
+  <si>
+    <t>1. Login()
+2. click logout button</t>
+  </si>
+  <si>
+    <t>Dialihkan ke halaman login</t>
+  </si>
+  <si>
+    <t>User transaction view tanpa login</t>
+  </si>
+  <si>
+    <t>User transaction view  login</t>
+  </si>
+  <si>
+    <t>1. Login ()
+2. klik click button logout</t>
+  </si>
+  <si>
+    <t>1. login()
+2. masukkan dari url /transaction</t>
   </si>
 </sst>
 </file>
@@ -899,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -975,6 +1000,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1193,7 +1234,7 @@
   <dimension ref="D3:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="105" x14ac:dyDescent="0.25">
@@ -1591,23 +1632,59 @@
         <v>147</v>
       </c>
       <c r="E23" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="G23" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="I23" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="27"/>
+      <c r="E24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E25" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="26" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="4:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Test case/tase case.xlsx
+++ b/Test case/tase case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485"/>
+    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="website" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +747,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -993,29 +999,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1233,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1273,19 +1300,19 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="35" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1294,73 +1321,73 @@
     </row>
     <row r="5" spans="4:12" ht="105" x14ac:dyDescent="0.25">
       <c r="D5" s="20"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="105" x14ac:dyDescent="0.25">
       <c r="D6" s="20"/>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="90" x14ac:dyDescent="0.25">
       <c r="D7" s="20"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="90" x14ac:dyDescent="0.25">
       <c r="D8" s="20"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1368,55 +1395,55 @@
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="4:12" ht="90" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="4:12" ht="75" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1424,109 +1451,109 @@
       <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="75" x14ac:dyDescent="0.25">
       <c r="D13" s="20"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:12" ht="75" x14ac:dyDescent="0.25">
       <c r="D14" s="20"/>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="4:12" ht="90" x14ac:dyDescent="0.25">
       <c r="D15" s="20"/>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="4:12" ht="90" x14ac:dyDescent="0.25">
       <c r="D16" s="20"/>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="4:15" ht="90" x14ac:dyDescent="0.25">
       <c r="D17" s="20"/>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1534,73 +1561,73 @@
       <c r="D18" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="4:15" ht="90" x14ac:dyDescent="0.25">
       <c r="D19" s="20"/>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="4:15" ht="90" x14ac:dyDescent="0.25">
       <c r="D20" s="20"/>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="4:15" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="20"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1608,19 +1635,19 @@
       <c r="D22" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="38" t="s">
         <v>15</v>
       </c>
       <c r="O22" s="5" t="s">
@@ -1634,54 +1661,54 @@
       <c r="E23" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="39" t="s">
         <v>160</v>
       </c>
       <c r="H23" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="33" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="24" spans="4:15" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="27"/>
-      <c r="E24" s="28" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I24" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="4:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2670,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test case/tase case.xlsx
+++ b/Test case/tase case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="website" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="201">
   <si>
     <t xml:space="preserve">User Story
 </t>
@@ -659,6 +659,162 @@
   <si>
     <t>1. login()
 2. masukkan dari url /transaction</t>
+  </si>
+  <si>
+    <t>Login page</t>
+  </si>
+  <si>
+    <t>User login with input email valid and password valid</t>
+  </si>
+  <si>
+    <t>Buka aplikasi dan klik button login</t>
+  </si>
+  <si>
+    <t>Berhasil login dan diarahkan ke halaman utama</t>
+  </si>
+  <si>
+    <t>User login with input email invalid and password valid</t>
+  </si>
+  <si>
+    <t>error message : email atau password tidak valid</t>
+  </si>
+  <si>
+    <t>User login with input email valid and password invalid</t>
+  </si>
+  <si>
+    <t>required : email can not empty</t>
+  </si>
+  <si>
+    <t>required : email can not password</t>
+  </si>
+  <si>
+    <t>User register with fullname, email and password</t>
+  </si>
+  <si>
+    <t>Buka aplikasi dan klik button login dan klik button register</t>
+  </si>
+  <si>
+    <t>1. klik button login
+2. klik button register
+3. input fullname
+4. input email
+5. input password
+6. klik button submit</t>
+  </si>
+  <si>
+    <t>1. klik button login
+2. input email valid
+3. input password valid
+4. klik button submit</t>
+  </si>
+  <si>
+    <t>1. klik button login
+2. input email invalid
+3. input password valid
+4. klik button submit</t>
+  </si>
+  <si>
+    <t>1. klik button login
+2. input email valid
+3. input password invalid
+4. klik button submit</t>
+  </si>
+  <si>
+    <t>1. klik button login
+2. input password 
+3. klik button submit</t>
+  </si>
+  <si>
+    <t>User login with input password</t>
+  </si>
+  <si>
+    <t>User login with input email</t>
+  </si>
+  <si>
+    <t>1. klik button login
+2. input email
+3. klik button submit</t>
+  </si>
+  <si>
+    <t>Berhasil register dan diarahkan ke halaman utama</t>
+  </si>
+  <si>
+    <t>1. klik button login
+2. klik button register
+3. input fullname
+4. input password
+5. klik button submit</t>
+  </si>
+  <si>
+    <t>required : fullname can not empty</t>
+  </si>
+  <si>
+    <t>1. klik button login
+2. klik button register
+3. input email
+4. input password
+5. klik button submit</t>
+  </si>
+  <si>
+    <t>1. klik button login
+2. klik button register
+3. input fullname
+4. input email
+5. klik button submit</t>
+  </si>
+  <si>
+    <t>required: password can not  empty</t>
+  </si>
+  <si>
+    <t>User register with password empty</t>
+  </si>
+  <si>
+    <t>User register with fullname empty</t>
+  </si>
+  <si>
+    <t>User register with email empty</t>
+  </si>
+  <si>
+    <t>User register with input email invalid, input fullname valid and input password valid</t>
+  </si>
+  <si>
+    <t>1. klik button login
+2. klik button register
+3. input fullname valid
+4. input email invalid
+5. input password valid
+6. klik button submit</t>
+  </si>
+  <si>
+    <t>Error message : gagal :(</t>
+  </si>
+  <si>
+    <t>User logout account</t>
+  </si>
+  <si>
+    <t>Buka aplikasi dan login dan klik button logout</t>
+  </si>
+  <si>
+    <t>1.login ()
+2. klik button logout</t>
+  </si>
+  <si>
+    <t>berhasil logout dan diarahkan kehalaman utama</t>
+  </si>
+  <si>
+    <t>Add product to cart</t>
+  </si>
+  <si>
+    <t>User add product</t>
+  </si>
+  <si>
+    <t>Buka aplikasi</t>
+  </si>
+  <si>
+    <t>1. klik button beli</t>
+  </si>
+  <si>
+    <t>product di masukkan ke cart</t>
   </si>
 </sst>
 </file>
@@ -930,7 +1086,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1043,6 +1199,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2697,7 +2856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -3195,19 +3354,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:H1000"/>
+  <dimension ref="C5:H1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="7" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" style="7" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:8" ht="45" x14ac:dyDescent="0.25">
@@ -3230,18 +3392,239 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="3:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="C6" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="C8" s="40"/>
+      <c r="D8" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C11" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="C12" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="3:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4210,6 +4593,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Test case/tase case.xlsx
+++ b/Test case/tase case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="website" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="201">
   <si>
     <t xml:space="preserve">User Story
 </t>
@@ -384,30 +384,6 @@
 4. set body</t>
   </si>
   <si>
-    <t>400. Anauthorized</t>
-  </si>
-  <si>
-    <t>1. Set URL
-2. Set Method
-3. Set bearer token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Create new order tanpa body
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User create new order tanpa bearer token
-</t>
-  </si>
-  <si>
-    <t>1. Set URL
-2. Set Method
-3. Set body</t>
-  </si>
-  <si>
-    <t>401. Anauthorized</t>
-  </si>
-  <si>
     <t>User get  all order</t>
   </si>
   <si>
@@ -436,17 +412,8 @@
     <t>404. Not found</t>
   </si>
   <si>
-    <t xml:space="preserve">User get order by id invalid karakter
-</t>
-  </si>
-  <si>
     <t>1.Set URL
 2. Set method</t>
-  </si>
-  <si>
-    <t>1.Set URL
-2. Set method
-3. Set id invalid karakter</t>
   </si>
   <si>
     <t>400. Bad request</t>
@@ -816,12 +783,43 @@
   <si>
     <t>product di masukkan ke cart</t>
   </si>
+  <si>
+    <t>User create a category with name valid and desc kosong</t>
+  </si>
+  <si>
+    <t>User create a category with name kosong and desc valid</t>
+  </si>
+  <si>
+    <t>User create  a category with name and desc kosong</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set name valid</t>
+  </si>
+  <si>
+    <t>1. Set URL 
+2. set method
+3. desc valid</t>
+  </si>
+  <si>
+    <t>500. Internal server error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User get order by id invalid null
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Set URL
+2. Set method
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,6 +864,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -913,7 +918,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1081,12 +1086,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1116,31 +1152,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1201,7 +1213,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1419,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:O1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1459,94 +1525,94 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="4:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D5" s="20"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="4:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="D6" s="20"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="4:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D7" s="20"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="4:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D8" s="20"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1554,55 +1620,55 @@
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="4:12" ht="90" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="4:12" ht="75" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1610,203 +1676,203 @@
       <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="4:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D13" s="20"/>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="4:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="D14" s="20"/>
-      <c r="E14" s="29" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="29" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="4:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D15" s="20"/>
-      <c r="E15" s="29" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="4:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="D16" s="20"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="4:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D17" s="20"/>
-      <c r="E17" s="29" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="4:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="4:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D19" s="20"/>
-      <c r="E19" s="32" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="32" t="s">
+      <c r="H19" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="4:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D20" s="20"/>
-      <c r="E20" s="32" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="4:15" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="20"/>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="4:15" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="30" t="s">
         <v>15</v>
       </c>
       <c r="O22" s="5" t="s">
@@ -1814,60 +1880,60 @@
       </c>
     </row>
     <row r="23" spans="4:15" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="16"/>
+      <c r="E24" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="23" t="s">
+      <c r="H25" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="24"/>
-      <c r="E24" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2854,10 +2920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I28"/>
+  <dimension ref="C2:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,7 +2942,7 @@
   <sheetData>
     <row r="2" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I2" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
@@ -2900,446 +2966,464 @@
       </c>
     </row>
     <row r="5" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C7" s="18"/>
-      <c r="D7" s="16" t="s">
+      <c r="H6" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="35"/>
+      <c r="D7" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="35"/>
+      <c r="D8" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E9" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C10" s="35"/>
+      <c r="D10" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C11" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C8" s="18"/>
-      <c r="D8" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="F11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F12" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C17" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="35"/>
+      <c r="D18" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C19" s="35"/>
+      <c r="D19" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C20" s="35"/>
+      <c r="D20" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C21" s="35"/>
+      <c r="D21" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="35"/>
+      <c r="D22" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="18"/>
-      <c r="D9" s="15" t="s">
+      <c r="G22" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="H22" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C23" s="47"/>
+      <c r="D23" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F23" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="35"/>
+      <c r="D24" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="18"/>
-      <c r="D11" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C12" s="18"/>
-      <c r="D12" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="G24" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C25" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="C14" s="18"/>
-      <c r="D14" s="16" t="s">
+      <c r="F25" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="C26" s="35"/>
+      <c r="D26" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C27" s="35"/>
+      <c r="D27" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C28" s="35"/>
+      <c r="D28" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="H28" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C29" s="50"/>
+      <c r="D29" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C15" s="18"/>
-      <c r="D15" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="18"/>
-      <c r="D16" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
-      <c r="D17" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C20" s="18"/>
-      <c r="D20" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="18"/>
-      <c r="D21" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C22" s="18"/>
-      <c r="D22" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="18"/>
-      <c r="D23" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="C24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="C25" s="18"/>
-      <c r="D25" s="16" t="s">
+      <c r="F29" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="14" t="s">
+      <c r="G29" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C26" s="18"/>
-      <c r="D26" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C27" s="18"/>
-      <c r="D27" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C28" s="19"/>
-      <c r="D28" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H28" s="13" t="s">
+      <c r="H29" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3356,8 +3440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3376,241 +3460,243 @@
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="120" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="C7" s="35"/>
+      <c r="D7" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="C9" s="35"/>
+      <c r="D9" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="H10" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C11" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="C12" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E12" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F12" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="G6" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="C7" s="40"/>
-      <c r="D7" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="40" t="s">
+      <c r="G13" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F14" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="C8" s="40"/>
-      <c r="D8" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="40" t="s">
+      <c r="H14" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="F8" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="C9" s="40"/>
-      <c r="D9" s="40" t="s">
+      <c r="F15" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="H15" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="C16" s="50"/>
+      <c r="D16" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="F9" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="C10" s="40"/>
-      <c r="D10" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="C11" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="40" t="s">
+      <c r="F16" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="C12" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="C13" s="40"/>
-      <c r="D13" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="D15" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="34" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Test case/tase case.xlsx
+++ b/Test case/tase case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="214">
   <si>
     <t xml:space="preserve">User Story
 </t>
@@ -813,6 +813,67 @@
     <t xml:space="preserve">1.Set URL
 2. Set method
 </t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>User get all product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Create new product with name, desc, price and categories </t>
+  </si>
+  <si>
+    <t>User Create new product with name null  , desc ,price and categories</t>
+  </si>
+  <si>
+    <t>User Create new product with desc null , name, price and categories</t>
+  </si>
+  <si>
+    <t>User Create new product with categories null, name, desc and price</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set name
+4. set desc
+5. set price</t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. set method
+3. Set name
+4. set price
+5. set desc
+6. set categories</t>
+  </si>
+  <si>
+    <t>1.Set URL
+2. Set method
+3. Set desc
+4 set price
+5. set categories</t>
+  </si>
+  <si>
+    <t>1.Set URL
+2. Set method
+3. Set name
+4 set price
+5. set categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Create new product with price 0, name, desc and categories </t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set method
+3. Set name
+4. set desc
+5. set categories
+6. Set price  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Create new product with null </t>
   </si>
 </sst>
 </file>
@@ -2920,17 +2981,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I29"/>
+  <dimension ref="C2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I31" activeCellId="1" sqref="H32 I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="7" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" style="7" customWidth="1"/>
@@ -3335,18 +3396,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="C25" s="40" t="s">
-        <v>58</v>
+    <row r="25" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>115</v>
@@ -3355,75 +3416,203 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" ht="90" x14ac:dyDescent="0.25">
       <c r="C26" s="35"/>
-      <c r="D26" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="37" t="s">
+      <c r="D26" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>130</v>
+      <c r="F26" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" ht="90" x14ac:dyDescent="0.25">
       <c r="C27" s="35"/>
-      <c r="D27" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="49" t="s">
+      <c r="D27" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="F27" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="75" x14ac:dyDescent="0.25">
       <c r="C28" s="35"/>
       <c r="D28" s="36" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="E28" s="37" t="s">
         <v>88</v>
       </c>
       <c r="F28" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C29" s="35"/>
+      <c r="D29" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C30" s="35"/>
+      <c r="D30" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="35"/>
+      <c r="D31" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C32" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="C33" s="35"/>
+      <c r="D33" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C34" s="35"/>
+      <c r="D34" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C35" s="35"/>
+      <c r="D35" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G35" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="50"/>
-      <c r="D29" s="36" t="s">
+      <c r="H35" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C36" s="50"/>
+      <c r="D36" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E36" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F36" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G36" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H36" s="34" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Test case/tase case.xlsx
+++ b/Test case/tase case.xlsx
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I31" activeCellId="1" sqref="H32 I31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3120,7 +3120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C10" s="35"/>
       <c r="D10" s="38" t="s">
         <v>199</v>
@@ -3212,7 +3212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="35"/>
       <c r="D15" s="36" t="s">
         <v>109</v>
@@ -3270,7 +3270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C18" s="35"/>
       <c r="D18" s="33" t="s">
         <v>193</v>
@@ -3288,7 +3288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C19" s="35"/>
       <c r="D19" s="36" t="s">
         <v>194</v>
@@ -3306,7 +3306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C20" s="35"/>
       <c r="D20" s="36" t="s">
         <v>195</v>
@@ -3397,7 +3397,7 @@
       </c>
     </row>
     <row r="25" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="40" t="s">
         <v>201</v>
       </c>
       <c r="D25" s="33" t="s">
@@ -3629,7 +3629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:H1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>

--- a/Test case/tase case.xlsx
+++ b/Test case/tase case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="217">
   <si>
     <t xml:space="preserve">User Story
 </t>
@@ -874,6 +874,17 @@
   </si>
   <si>
     <t xml:space="preserve">User Create new product with null </t>
+  </si>
+  <si>
+    <t>Uset Get product By id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET </t>
+  </si>
+  <si>
+    <t>1. Set URL
+2. Set Method
+3. Set id</t>
   </si>
 </sst>
 </file>
@@ -2981,10 +2992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I36"/>
+  <dimension ref="C2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,19 +3427,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C26" s="35"/>
       <c r="D26" s="33" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="H26" s="34" t="s">
         <v>15</v>
@@ -3437,13 +3448,13 @@
     <row r="27" spans="3:8" ht="90" x14ac:dyDescent="0.25">
       <c r="C27" s="35"/>
       <c r="D27" s="33" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>88</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>115</v>
@@ -3452,19 +3463,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" ht="90" x14ac:dyDescent="0.25">
       <c r="C28" s="35"/>
-      <c r="D28" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="37" t="s">
+      <c r="D28" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>198</v>
+      <c r="F28" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>15</v>
@@ -3472,17 +3483,17 @@
     </row>
     <row r="29" spans="3:8" ht="75" x14ac:dyDescent="0.25">
       <c r="C29" s="35"/>
-      <c r="D29" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="E29" s="20" t="s">
+      <c r="D29" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>115</v>
+      <c r="F29" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>198</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>15</v>
@@ -3491,13 +3502,13 @@
     <row r="30" spans="3:8" ht="75" x14ac:dyDescent="0.25">
       <c r="C30" s="35"/>
       <c r="D30" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>88</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>115</v>
@@ -3506,113 +3517,131 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8" ht="75" x14ac:dyDescent="0.25">
       <c r="C31" s="35"/>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="35"/>
+      <c r="D32" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E32" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F32" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G32" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="C32" s="40" t="s">
+      <c r="H32" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="C33" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D33" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E33" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F33" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G33" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H32" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="C33" s="35"/>
-      <c r="D33" s="36" t="s">
+      <c r="H33" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="C34" s="35"/>
+      <c r="D34" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E34" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="37" t="s">
+      <c r="F34" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G34" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C34" s="35"/>
-      <c r="D34" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="34" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="60" x14ac:dyDescent="0.25">
       <c r="C35" s="35"/>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C36" s="35"/>
+      <c r="D36" s="36" t="s">
         <v>133</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="C36" s="50"/>
-      <c r="D36" s="36" t="s">
-        <v>135</v>
       </c>
       <c r="E36" s="37" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="C37" s="50"/>
+      <c r="D37" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G37" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H37" s="34" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Test case/tase case.xlsx
+++ b/Test case/tase case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="website" sheetId="1" r:id="rId1"/>
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2994,7 +2994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
